--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Documents/timesheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE27CC5-286F-0841-9F79-9C395BA3358A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DAD63A-548C-3949-9FB8-92A41B0718AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Week Start (Monday)</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Total Remaining</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Worked 2 hours on Monday on sensors project so that’s why its 3.75 instead of 4 days on Rag</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,9 +454,10 @@
     <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -464,7 +471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,8 +484,11 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45929</v>
       </c>
@@ -492,17 +502,27 @@
         <f>SUM(B4*$B$1)+(C4*$D$1)</f>
         <v>480</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45936</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D15" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -510,8 +530,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -519,8 +540,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -528,8 +550,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -537,8 +560,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -546,8 +570,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -555,8 +580,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -564,8 +590,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -573,8 +600,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -582,8 +610,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -591,8 +620,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
@@ -600,10 +630,11 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
@@ -611,100 +642,123 @@
       </c>
       <c r="D17" s="5">
         <f>SUM(3000-D16)</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1820</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DAD63A-548C-3949-9FB8-92A41B0718AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F9C80-0144-8445-B442-FCE6526453D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,17 +523,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="6">
+        <v>45943</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5">
@@ -630,7 +634,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>1180</v>
+        <v>1820</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -642,7 +646,7 @@
       </c>
       <c r="D17" s="5">
         <f>SUM(3000-D16)</f>
-        <v>1820</v>
+        <v>1180</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F9C80-0144-8445-B442-FCE6526453D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F479F6B-5191-EC4B-BC8A-BB25E85EFA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,12 +537,16 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="6">
+        <v>45950</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -634,7 +638,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>1820</v>
+        <v>2300</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -646,7 +650,7 @@
       </c>
       <c r="D17" s="5">
         <f>SUM(3000-D16)</f>
-        <v>1180</v>
+        <v>700</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F479F6B-5191-EC4B-BC8A-BB25E85EFA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1094F0D8-833E-904F-8D5D-1B50D26D5883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,9 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>640</v>
@@ -543,7 +545,9 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>480</v>
@@ -551,12 +555,18 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="6">
+        <v>45957</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -638,7 +648,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>2300</v>
+        <v>2620</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -650,7 +660,7 @@
       </c>
       <c r="D17" s="5">
         <f>SUM(3000-D16)</f>
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1094F0D8-833E-904F-8D5D-1B50D26D5883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09745B9D-639C-BB49-A798-E2A0921D3F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,12 +571,16 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6">
+        <v>45964</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -648,7 +652,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>2620</v>
+        <v>2740</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -660,7 +664,7 @@
       </c>
       <c r="D17" s="5">
         <f>SUM(3000-D16)</f>
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09745B9D-639C-BB49-A798-E2A0921D3F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96780631-51E5-FD4B-BFFC-CEA3B2A52754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,7 +577,9 @@
       <c r="B9" s="1">
         <v>0.75</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>120</v>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96780631-51E5-FD4B-BFFC-CEA3B2A52754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9886EC9-2E58-6041-88FF-225890E6B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
+    <workbookView xWindow="-20" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,12 +587,18 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="6">
+        <v>45971</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -654,7 +660,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>2740</v>
+        <v>3196</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -665,8 +671,8 @@
         <v>7</v>
       </c>
       <c r="D17" s="5">
-        <f>SUM(3000-D16)</f>
-        <v>260</v>
+        <f>SUM(6000-D16)</f>
+        <v>2804</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9886EC9-2E58-6041-88FF-225890E6B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBB831-B3C4-C64F-BAC6-0089FEDA4809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Week Start (Monday)</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Worked 2 hours on Monday on sensors project so that’s why its 3.75 instead of 4 days on Rag</t>
+  </si>
+  <si>
+    <t>Amount Paid to Scott</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,9 +458,10 @@
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -470,8 +474,14 @@
       <c r="D1" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -488,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45929</v>
       </c>
@@ -504,7 +514,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45936</v>
       </c>
@@ -522,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45943</v>
       </c>
@@ -538,7 +548,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45950</v>
       </c>
@@ -554,7 +564,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45957</v>
       </c>
@@ -570,7 +580,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45964</v>
       </c>
@@ -586,7 +596,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45971</v>
       </c>
@@ -602,17 +612,23 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>45978</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -622,7 +638,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -632,7 +648,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -642,7 +658,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -652,7 +668,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
@@ -660,7 +676,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>3196</v>
+        <v>3742</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -671,8 +687,8 @@
         <v>7</v>
       </c>
       <c r="D17" s="5">
-        <f>SUM(6000-D16)</f>
-        <v>2804</v>
+        <f>SUM(G1-D16)</f>
+        <v>2258</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBB831-B3C4-C64F-BAC6-0089FEDA4809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA7719-E7DB-A641-AFE6-A8AE75859A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,12 +629,18 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="6">
+        <v>45985</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -676,7 +682,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>3742</v>
+        <v>4144</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -688,7 +694,7 @@
       </c>
       <c r="D17" s="5">
         <f>SUM(G1-D16)</f>
-        <v>2258</v>
+        <v>1856</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA7719-E7DB-A641-AFE6-A8AE75859A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CA8F1-DBB6-3840-869E-4EA0E3714605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,12 +645,16 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="6">
+        <v>45992</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.6</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -682,7 +686,7 @@
       </c>
       <c r="D16" s="5">
         <f>SUM(D4:D15)</f>
-        <v>4144</v>
+        <v>4560</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -694,7 +698,7 @@
       </c>
       <c r="D17" s="5">
         <f>SUM(G1-D16)</f>
-        <v>1856</v>
+        <v>1440</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CA8F1-DBB6-3840-869E-4EA0E3714605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7241AC50-87E8-7E46-9148-F684CF55A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="31380" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
+    <workbookView xWindow="-20" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,9 @@
       <c r="B13" s="1">
         <v>2.6</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>416</v>
@@ -659,12 +661,18 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="6">
+        <v>45999</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -681,37 +689,46 @@
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <f>SUM(D4:D15)</f>
-        <v>4560</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <f>SUM(D4:D18)</f>
+        <v>4946</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5">
-        <f>SUM(G1-D16)</f>
-        <v>1440</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
+      <c r="D20" s="5">
+        <f>SUM(G1-D19)</f>
+        <v>1054</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -790,14 +807,17 @@
       <c r="D39" s="3"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="3"/>
@@ -918,6 +938,15 @@
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7241AC50-87E8-7E46-9148-F684CF55A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BEC7C1-1CAB-6B42-841C-914E608C97AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,12 +677,18 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="6">
+        <v>46006</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.5</v>
+      </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>617.4</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -715,7 +721,7 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(D4:D18)</f>
-        <v>4946</v>
+        <v>5563.4</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -727,7 +733,7 @@
       </c>
       <c r="D20" s="5">
         <f>SUM(G1-D19)</f>
-        <v>1054</v>
+        <v>436.60000000000036</v>
       </c>
       <c r="E20" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BEC7C1-1CAB-6B42-841C-914E608C97AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83314530-2164-AC45-8372-6534DA32CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D15" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D16" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -693,10 +693,19 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="6">
+        <v>46013</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -721,7 +730,7 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(D4:D18)</f>
-        <v>5563.4</v>
+        <v>5715.4</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -733,7 +742,7 @@
       </c>
       <c r="D20" s="5">
         <f>SUM(G1-D19)</f>
-        <v>436.60000000000036</v>
+        <v>284.60000000000036</v>
       </c>
       <c r="E20" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83314530-2164-AC45-8372-6534DA32CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6F2B0-53CF-B645-9F71-2F05060DE808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D16" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D17" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -709,10 +709,19 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>219.20000000000002</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -730,7 +739,7 @@
       </c>
       <c r="D19" s="5">
         <f>SUM(D4:D18)</f>
-        <v>5715.4</v>
+        <v>5934.5999999999995</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -742,7 +751,7 @@
       </c>
       <c r="D20" s="5">
         <f>SUM(G1-D19)</f>
-        <v>284.60000000000036</v>
+        <v>65.400000000000546</v>
       </c>
       <c r="E20" s="1"/>
     </row>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6F2B0-53CF-B645-9F71-2F05060DE808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43AFD7-A0AA-2349-BAAA-F0BEC028B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Week Start (Monday)</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>Amount Paid to Scott</t>
+  </si>
+  <si>
+    <t>Payments From</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Parovine Properties Limited</t>
+  </si>
+  <si>
+    <t>Central Shop Limited</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -131,6 +146,7 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,10 +474,12 @@
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -474,14 +492,12 @@
       <c r="D1" s="5">
         <v>50</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,8 +513,17 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45929</v>
       </c>
@@ -513,8 +538,17 @@
         <v>480</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45936</v>
       </c>
@@ -525,14 +559,23 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D17" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D18" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45943</v>
       </c>
@@ -547,8 +590,17 @@
         <v>640</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45950</v>
       </c>
@@ -563,8 +615,11 @@
         <v>480</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45957</v>
       </c>
@@ -579,8 +634,11 @@
         <v>320</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45964</v>
       </c>
@@ -595,8 +653,11 @@
         <v>120</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45971</v>
       </c>
@@ -611,8 +672,11 @@
         <v>456</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45978</v>
       </c>
@@ -627,8 +691,11 @@
         <v>546</v>
       </c>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45985</v>
       </c>
@@ -643,8 +710,11 @@
         <v>402</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45992</v>
       </c>
@@ -659,8 +729,11 @@
         <v>416</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45999</v>
       </c>
@@ -675,8 +748,11 @@
         <v>386</v>
       </c>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>46006</v>
       </c>
@@ -691,8 +767,11 @@
         <v>617.4</v>
       </c>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>46013</v>
       </c>
@@ -707,8 +786,11 @@
         <v>152</v>
       </c>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>46020</v>
       </c>
@@ -723,83 +805,115 @@
         <v>219.20000000000002</v>
       </c>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>46027</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>563.20000000000005</v>
+      </c>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5">
-        <f>SUM(D4:D18)</f>
-        <v>5934.5999999999995</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5">
+        <f>SUM(D4:D18)</f>
+        <v>6497.7999999999993</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>7000</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5">
-        <f>SUM(G1-D19)</f>
-        <v>65.400000000000546</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+      <c r="D21" s="5">
+        <f>SUM(H20-D20)</f>
+        <v>502.20000000000073</v>
+      </c>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
     </row>
@@ -843,8 +957,9 @@
       <c r="D42" s="3"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
@@ -971,6 +1086,9 @@
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43AFD7-A0AA-2349-BAAA-F0BEC028B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B13992-BEDC-804E-9692-7F2F0A3CD4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Week Start (Monday)</t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D18" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D19" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -615,9 +615,15 @@
         <v>480</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>46036</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -829,10 +835,19 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="6">
+        <v>46033</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>627.6</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="5"/>
@@ -841,41 +856,47 @@
     <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5">
-        <f>SUM(D4:D18)</f>
-        <v>6497.7999999999993</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>7000</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
+        <f>SUM(D4:D19)</f>
+        <v>7125.4</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="G21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>8000</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5">
-        <f>SUM(H20-D20)</f>
-        <v>502.20000000000073</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
+      <c r="D22" s="5">
+        <f>SUM(H21-D21)</f>
+        <v>874.60000000000036</v>
+      </c>
       <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
@@ -961,8 +982,9 @@
       <c r="D43" s="3"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="3"/>
@@ -1089,6 +1111,9 @@
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SRM Code/Apps/RagFactory/Working Documents/timesheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B13992-BEDC-804E-9692-7F2F0A3CD4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB3360-8A67-004E-A0B0-FE45D024E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D19" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D20" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -854,53 +854,68 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="6">
+        <v>46040</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="5"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5">
-        <f>SUM(D4:D19)</f>
-        <v>7125.4</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="1"/>
-      <c r="G21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>8000</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <f>SUM(D4:D20)</f>
+        <v>7565.4</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>8000</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5">
-        <f>SUM(H21-D21)</f>
-        <v>874.60000000000036</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
+      <c r="D23" s="5">
+        <f>SUM(H22-D22)</f>
+        <v>434.60000000000036</v>
+      </c>
       <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
@@ -986,8 +1001,9 @@
       <c r="D44" s="3"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="3"/>
@@ -1114,6 +1130,9 @@
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB3360-8A67-004E-A0B0-FE45D024E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78055EC9-4A6A-0E46-B291-C615913ED286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Week Start (Monday)</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Central Shop Limited</t>
+  </si>
+  <si>
+    <t>Total Days</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -147,6 +150,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D20" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D21" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -640,8 +646,12 @@
         <v>320</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1000</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -873,56 +883,77 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="6">
+        <v>46048</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>566.4</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="5"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5">
-        <f>SUM(D4:D20)</f>
-        <v>7565.4</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>8000</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5">
+        <f>SUM(D4:D21)</f>
+        <v>8131.7999999999993</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="G23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>9000</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5">
-        <f>SUM(H22-D22)</f>
-        <v>434.60000000000036</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
+      <c r="D24" s="5">
+        <f>SUM(H23-D23)</f>
+        <v>868.20000000000073</v>
+      </c>
       <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5">
+        <f>SUM(B4:B21)</f>
+        <v>48.480000000000004</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -1005,8 +1036,9 @@
       <c r="D45" s="3"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="3"/>
@@ -1133,6 +1165,9 @@
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78055EC9-4A6A-0E46-B291-C615913ED286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB293576-5F8D-9944-BE5F-4BE316A3455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D21" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D22" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -652,7 +652,9 @@
       <c r="H8" s="5">
         <v>1000</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="6">
+        <v>46055</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -902,62 +904,77 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="6">
+        <v>46055</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>414.4</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5">
-        <f>SUM(D4:D21)</f>
-        <v>8131.7999999999993</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>9000</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5">
+        <f>SUM(D4:D22)</f>
+        <v>8546.1999999999989</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>9000</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="5">
-        <f>SUM(H23-D23)</f>
-        <v>868.20000000000073</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="5">
+        <f>SUM(H24-D24)</f>
+        <v>453.80000000000109</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <f>SUM(B4:B21)</f>
         <v>48.480000000000004</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -1040,8 +1057,9 @@
       <c r="D46" s="3"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="3"/>
@@ -1168,6 +1186,9 @@
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB293576-5F8D-9944-BE5F-4BE316A3455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5FCDEF-83C1-EB4E-92C3-5A665AAEEA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D22" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D23" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -923,62 +923,77 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="6">
+        <v>46062</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>516.79999999999995</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5">
-        <f>SUM(D4:D22)</f>
-        <v>8546.1999999999989</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>9000</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
+        <f>SUM(D4:D23)</f>
+        <v>9062.9999999999982</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="G25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>9000</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5">
-        <f>SUM(H24-D24)</f>
-        <v>453.80000000000109</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="5">
+        <f>SUM(H25-D25)</f>
+        <v>-62.999999999998181</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f>SUM(B4:B21)</f>
         <v>48.480000000000004</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -1061,8 +1076,9 @@
       <c r="D47" s="3"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="3"/>
@@ -1189,6 +1205,9 @@
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheets/scott-timesheet.xlsx
+++ b/timesheets/scott-timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Apps/RagFactory/Working Documents/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5FCDEF-83C1-EB4E-92C3-5A665AAEEA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A6A89C-5C8F-1F4F-BAF4-96D570E5FD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="25780" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="102400" windowHeight="28200" xr2:uid="{C46E0534-C623-F74E-979A-96D92E3EAC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Week Start (Monday)</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9090A6B0-3C3B-5444-8457-BF107066D44E}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D23" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
+        <f t="shared" ref="D5:D25" si="0">SUM(B5*$B$1)+(C5*$D$1)</f>
         <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -671,9 +671,15 @@
         <v>120</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="6">
+        <v>46071</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -942,69 +948,100 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="6">
+        <v>46069</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>380.79999999999995</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="5"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
+      <c r="A25" s="6">
+        <v>46076</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
       </c>
       <c r="D25" s="5">
-        <f>SUM(D4:D23)</f>
-        <v>9062.9999999999982</v>
+        <f t="shared" si="0"/>
+        <v>113.6</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="G25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="5">
-        <f>SUM(H4:H18)</f>
-        <v>9000</v>
-      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5">
-        <f>SUM(H25-D25)</f>
-        <v>-62.999999999998181</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5">
+        <f>SUM(D4:D25)</f>
+        <v>9557.3999999999978</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="G27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5">
+        <f>SUM(H4:H18)</f>
+        <v>10000</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
+        <f>SUM(H27-D27)</f>
+        <v>442.60000000000218</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="5">
-        <f>SUM(B4:B21)</f>
-        <v>48.480000000000004</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="D29" s="3"/>
+      <c r="D29" s="5">
+        <f>SUM(B4:B25)</f>
+        <v>57.390000000000008</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
     </row>
@@ -1080,52 +1117,54 @@
       <c r="D48" s="3"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="4:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.2">
@@ -1208,6 +1247,12 @@
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
